--- a/Week1_CUDA入门/Week1_CUDA入门_学习计划.xlsx
+++ b/Week1_CUDA入门/Week1_CUDA入门_学习计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\CUDA\cuda-learning\Week1_CUDA入门\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4139AB1-72F7-4E5B-AE6E-6B1567F2CA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B025AFF1-5CEF-473A-BFDD-33887533224A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-2760" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 总览" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="217">
   <si>
     <t>Week 1 学习计划 - CUDA入门（从周三开始）</t>
   </si>
@@ -278,20 +278,6 @@
 - 编写 04_vector_add_cpu.cpp
 - 添加计时功能
 - 测试不同数据量</t>
-  </si>
-  <si>
-    <t>任务2：实现GPU版计时
-- 编写 05_vector_add_gpu_timed.cu
-- 使用cudaEvent计时
-- 对比CPU和GPU
-- 制作性能对比表</t>
-  </si>
-  <si>
-    <t>□ CPU版本实现
-□ GPU版本添加计时
-□ 性能对比表完成
-□ 理解为什么GPU快
-□ 计算了加速比</t>
   </si>
   <si>
     <t>周五 1/10 (Day 3)</t>
@@ -475,9 +461,6 @@
     <t>GPU版本添加计时</t>
   </si>
   <si>
-    <t>理解cudaEvent的使用</t>
-  </si>
-  <si>
     <t>制作了性能对比表</t>
   </si>
   <si>
@@ -589,9 +572,6 @@
     <t>02_memory_basic.cu</t>
   </si>
   <si>
-    <t>cudaMalloc, cudaMemcpy, cudaFree</t>
-  </si>
-  <si>
     <t>03_vector_add.cu</t>
   </si>
   <si>
@@ -604,19 +584,10 @@
     <t>Day 2 (周四)</t>
   </si>
   <si>
-    <t>CPU版向量加法</t>
-  </si>
-  <si>
     <t>性能基准, C++计时</t>
   </si>
   <si>
     <t>05_vector_add_gpu_timed.cu</t>
-  </si>
-  <si>
-    <t>GPU性能测试</t>
-  </si>
-  <si>
-    <t>cudaEvent计时, 性能对比</t>
   </si>
   <si>
     <t>06_matrix_add.cu</t>
@@ -914,6 +885,145 @@
   </si>
   <si>
     <t>CPU版向量加法实现</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CPU版本实现
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GPU版本添加计时
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 性能对比表完成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 理解为什么GPU快
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 计算了加速比</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务2：实现GPU版计时
+- 编写 05_vector_add_gpu_timed.cu
+- 使用cudaEvent计时
+- 对比CPU和GPU
+- 制作性能对比表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解cudaEvent的使用</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cudaMalloc, cudaMemcpy, cudaFree</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cudaEvent计时, 性能对比</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU版向量加法</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU性能测试</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵加法运行成功</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1174,6 +1284,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1187,9 +1300,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1504,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1827,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -1884,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1896,7 +2006,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="20"/>
@@ -1905,18 +2015,18 @@
       <c r="E1" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>200</v>
+      <c r="A3" s="30" t="s">
+        <v>193</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="20"/>
@@ -1928,8 +2038,8 @@
       <c r="A5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>207</v>
+      <c r="B5" s="25" t="s">
+        <v>200</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -1939,15 +2049,15 @@
       <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>205</v>
+      <c r="B6" s="25" t="s">
+        <v>198</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="20"/>
@@ -1956,8 +2066,8 @@
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>197</v>
+      <c r="A8" s="24" t="s">
+        <v>190</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1969,14 +2079,14 @@
         <v>70</v>
       </c>
       <c r="B10" s="20"/>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="20"/>
@@ -1988,7 +2098,7 @@
       <c r="A12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="20"/>
@@ -1999,15 +2109,15 @@
       <c r="A13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>72</v>
+      <c r="B13" s="25" t="s">
+        <v>210</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="20"/>
@@ -2017,7 +2127,7 @@
     </row>
     <row r="15" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -2026,17 +2136,17 @@
     </row>
     <row r="17" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="20"/>
@@ -2048,8 +2158,8 @@
       <c r="A19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>75</v>
+      <c r="B19" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2059,15 +2169,15 @@
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>76</v>
+      <c r="B20" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="20"/>
@@ -2076,8 +2186,8 @@
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>77</v>
+      <c r="A22" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -2086,17 +2196,17 @@
     </row>
     <row r="24" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="25" t="s">
-        <v>79</v>
+      <c r="C24" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="20"/>
@@ -2106,10 +2216,10 @@
     </row>
     <row r="26" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -2117,10 +2227,10 @@
     </row>
     <row r="27" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -2128,10 +2238,10 @@
     </row>
     <row r="28" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -2139,10 +2249,10 @@
     </row>
     <row r="29" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
@@ -2150,10 +2260,10 @@
     </row>
     <row r="30" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -2161,17 +2271,17 @@
     </row>
     <row r="31" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="20"/>
@@ -2180,8 +2290,8 @@
       <c r="E32" s="20"/>
     </row>
     <row r="33" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>92</v>
+      <c r="A33" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -2189,18 +2299,18 @@
       <c r="E33" s="20"/>
     </row>
     <row r="35" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
-        <v>93</v>
+      <c r="A35" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="B35" s="20"/>
-      <c r="C35" s="25" t="s">
-        <v>94</v>
+      <c r="C35" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="20"/>
@@ -2210,17 +2320,17 @@
     </row>
     <row r="37" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B38" s="20"/>
@@ -2229,8 +2339,8 @@
       <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>97</v>
+      <c r="A39" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -2239,17 +2349,17 @@
     </row>
     <row r="41" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B41" s="20"/>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="20"/>
@@ -2261,8 +2371,8 @@
       <c r="A43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="24" t="s">
-        <v>98</v>
+      <c r="B43" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -2272,15 +2382,15 @@
       <c r="A44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="24" t="s">
-        <v>99</v>
+      <c r="B44" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B45" s="20"/>
@@ -2289,8 +2399,8 @@
       <c r="E45" s="20"/>
     </row>
     <row r="46" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>100</v>
+      <c r="A46" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -2299,17 +2409,17 @@
     </row>
     <row r="48" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" s="20"/>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B49" s="20"/>
@@ -2321,8 +2431,8 @@
       <c r="A50" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="24" t="s">
-        <v>102</v>
+      <c r="B50" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -2332,15 +2442,15 @@
       <c r="A51" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="24" t="s">
-        <v>103</v>
+      <c r="B51" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B52" s="20"/>
@@ -2349,8 +2459,8 @@
       <c r="E52" s="20"/>
     </row>
     <row r="53" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
-        <v>104</v>
+      <c r="A53" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -2422,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2435,8 +2545,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
-        <v>105</v>
+      <c r="A1" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2444,7 +2554,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -2455,10 +2565,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -2466,10 +2576,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="11"/>
@@ -2477,27 +2587,27 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="11" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="11"/>
@@ -2505,7 +2615,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="11"/>
@@ -2513,7 +2623,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="11"/>
@@ -2526,44 +2636,44 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="11"/>
+        <v>208</v>
+      </c>
+      <c r="C13" s="17"/>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="C14" s="17"/>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="11"/>
+        <v>211</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="C16" s="17"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="11"/>
+        <v>112</v>
+      </c>
+      <c r="C17" s="17"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2574,10 +2684,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -2585,7 +2695,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2601,7 +2711,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2609,7 +2719,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -2622,10 +2732,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2633,7 +2743,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2641,7 +2751,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2649,7 +2759,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2657,7 +2767,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2665,7 +2775,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2673,7 +2783,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2686,10 +2796,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -2702,10 +2812,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -2713,7 +2823,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -2721,7 +2831,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -2729,7 +2839,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -2742,10 +2852,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2753,7 +2863,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -2761,7 +2871,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -2769,7 +2879,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -2795,7 +2905,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2808,8 +2918,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
-        <v>141</v>
+      <c r="A1" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2818,153 +2928,153 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="15"/>
+        <v>152</v>
+      </c>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E12" s="15"/>
     </row>
@@ -2993,107 +3103,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
-        <v>176</v>
+      <c r="A1" s="29" t="s">
+        <v>169</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" t="s">
         <v>195</v>
-      </c>
-      <c r="B14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" t="s">
         <v>196</v>
-      </c>
-      <c r="B15" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/Week1_CUDA入门/Week1_CUDA入门_学习计划.xlsx
+++ b/Week1_CUDA入门/Week1_CUDA入门_学习计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\CUDA\cuda-learning\Week1_CUDA入门\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B025AFF1-5CEF-473A-BFDD-33887533224A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B96125A-65F4-4561-8532-8ED21F996EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 总览" sheetId="1" r:id="rId1"/>
@@ -296,13 +296,6 @@
 - 记录性能数据</t>
   </si>
   <si>
-    <t>□ 理解了2D索引计算
-□ 矩阵加法运行成功
-□ 验证了结果正确
-□ 记录了性能数据
-□ 准备好周六的项目</t>
-  </si>
-  <si>
     <t>周六 1/11 (Day 4) - 关键日！</t>
   </si>
   <si>
@@ -312,56 +305,19 @@
     <t>上午第1小时 (09:00-10:00)</t>
   </si>
   <si>
-    <t>任务1：错误处理学习
-- 创建 cuda_utils.h
-- 理解CUDA_CHECK宏
-- 运行 07_error_handling.cu</t>
-  </si>
-  <si>
     <t>上午第2小时 (10:00-11:00)</t>
   </si>
   <si>
-    <t>任务2：改进之前的代码
-- 给所有程序添加错误检查
-- 统一代码风格
-- 添加注释</t>
-  </si>
-  <si>
     <t>上午第3小时 (11:00-12:00)</t>
   </si>
   <si>
-    <t>任务3：完整项目实现
-- CPU和GPU矩阵运算对比
-- 性能测试
-- 制作详细对比表</t>
-  </si>
-  <si>
     <t>下午第1小时 (13:00-14:00)</t>
   </si>
   <si>
-    <t>任务4：博客撰写（框架）
-- 博客大纲
-- 环境搭建部分
-- 准备截图和代码</t>
-  </si>
-  <si>
     <t>下午第2小时 (14:00-15:00)</t>
   </si>
   <si>
-    <t>任务5：博客撰写（核心内容）
-- 核心概念讲解
-- 代码示例
-- 性能对比</t>
-  </si>
-  <si>
     <t>下午第3小时 (15:00-16:00)</t>
-  </si>
-  <si>
-    <t>任务6：博客完成和发布
-- 总结和优化
-- 排版美化
-- 发布到知乎/CSDN
-- GitHub README更新</t>
   </si>
   <si>
     <t>□ 错误处理学习完成
@@ -1024,6 +980,156 @@
   </si>
   <si>
     <t>矩阵加法运行成功</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 理解了2D索引计算
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 矩阵加法运行成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 验证了结果正确
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 记录了性能数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 准备好周六的项目</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务2：改进之前的代码
+- 给所有程序添加错误检查
+- 统一代码风格
+- 添加注释</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务3：完整项目实现
+- CPU和GPU矩阵运算对比
+- 性能测试
+- 制作详细对比表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务4：博客撰写（框架）
+- 博客大纲
+- 环境搭建部分
+- 准备截图和代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务5：博客撰写（核心内容）
+- 核心概念讲解
+- 代码示例
+- 性能对比</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务6：博客完成和发布
+- 总结和优化
+- 排版美化
+- 发布到知乎/CSDN
+- GitHub README更新</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务1：错误处理学习
+- 创建 cuda_utils.h
+- 理解CUDA_CHECK宏
+- 运行 07_error_handling.cu</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1614,7 +1720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1827,7 +1933,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -1994,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2016,7 +2122,7 @@
     </row>
     <row r="3" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="26" t="s">
@@ -2039,7 +2145,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -2050,7 +2156,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -2067,7 +2173,7 @@
     </row>
     <row r="8" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -2110,7 +2216,7 @@
         <v>68</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -2127,7 +2233,7 @@
     </row>
     <row r="15" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -2186,8 +2292,8 @@
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>75</v>
+      <c r="A22" s="24" t="s">
+        <v>210</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -2196,11 +2302,11 @@
     </row>
     <row r="24" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -2216,10 +2322,10 @@
     </row>
     <row r="26" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -2227,10 +2333,10 @@
     </row>
     <row r="27" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -2238,10 +2344,10 @@
     </row>
     <row r="28" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -2249,10 +2355,10 @@
     </row>
     <row r="29" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
@@ -2260,10 +2366,10 @@
     </row>
     <row r="30" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -2271,10 +2377,10 @@
     </row>
     <row r="31" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
@@ -2291,7 +2397,7 @@
     </row>
     <row r="33" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -2300,11 +2406,11 @@
     </row>
     <row r="35" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
@@ -2320,10 +2426,10 @@
     </row>
     <row r="37" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -2340,7 +2446,7 @@
     </row>
     <row r="39" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -2349,7 +2455,7 @@
     </row>
     <row r="41" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="26" t="s">
@@ -2372,7 +2478,7 @@
         <v>67</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -2383,7 +2489,7 @@
         <v>68</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
@@ -2400,7 +2506,7 @@
     </row>
     <row r="46" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -2409,7 +2515,7 @@
     </row>
     <row r="48" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="26" t="s">
@@ -2432,7 +2538,7 @@
         <v>67</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -2443,7 +2549,7 @@
         <v>68</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
@@ -2460,7 +2566,7 @@
     </row>
     <row r="53" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -2533,7 +2639,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C19" sqref="C19:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2546,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2554,7 +2660,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -2565,10 +2671,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -2576,10 +2682,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="11"/>
@@ -2587,27 +2693,27 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="11" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="11" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="11"/>
@@ -2615,7 +2721,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="11"/>
@@ -2623,7 +2729,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="11"/>
@@ -2636,10 +2742,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="11"/>
@@ -2647,7 +2753,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="11"/>
@@ -2655,7 +2761,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="11"/>
@@ -2663,7 +2769,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="11"/>
@@ -2671,7 +2777,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="11"/>
@@ -2684,20 +2790,20 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="11"/>
+        <v>108</v>
+      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2705,23 +2811,23 @@
       <c r="B21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="11"/>
+        <v>109</v>
+      </c>
+      <c r="C22" s="17"/>
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="C23" s="17"/>
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2732,10 +2838,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2743,7 +2849,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2751,7 +2857,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2759,7 +2865,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2767,7 +2873,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2775,7 +2881,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2783,7 +2889,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2796,10 +2902,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -2812,10 +2918,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -2823,7 +2929,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -2831,7 +2937,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -2839,7 +2945,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -2852,10 +2958,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2863,7 +2969,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -2871,7 +2977,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -2879,7 +2985,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -2905,7 +3011,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2919,7 +3025,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2928,153 +3034,153 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="15"/>
+        <v>150</v>
+      </c>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E12" s="15"/>
     </row>
@@ -3092,7 +3198,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3104,106 +3210,106 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" t="s">
         <v>188</v>
-      </c>
-      <c r="B14" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" t="s">
         <v>189</v>
-      </c>
-      <c r="B15" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Week1_CUDA入门/Week1_CUDA入门_学习计划.xlsx
+++ b/Week1_CUDA入门/Week1_CUDA入门_学习计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\CUDA\cuda-learning\Week1_CUDA入门\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B96125A-65F4-4561-8532-8ED21F996EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931C4189-262B-4F8F-B190-29592EFF5FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,14 +320,6 @@
     <t>下午第3小时 (15:00-16:00)</t>
   </si>
   <si>
-    <t>□ 错误处理学习完成
-□ 所有代码添加错误检查
-□ 完整项目代码完成
-□ 技术博客撰写完成
-□ 博客发布成功
-□ GitHub更新完成</t>
-  </si>
-  <si>
     <t>周日 1/12 - 休息日</t>
   </si>
   <si>
@@ -1130,6 +1122,134 @@
 - 创建 cuda_utils.h
 - 理解CUDA_CHECK宏
 - 运行 07_error_handling.cu</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 错误处理学习完成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 所有代码添加错误检查
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 完整项目代码完成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 技术博客撰写完成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 博客发布成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GitHub更新完成</t>
+    </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1383,34 +1503,34 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1720,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1855,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20"/>
@@ -1933,7 +2053,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -2014,7 +2134,7 @@
       <c r="F25" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="20"/>
@@ -2024,7 +2144,7 @@
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="20"/>
@@ -2034,7 +2154,7 @@
       <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="20"/>
@@ -2044,7 +2164,7 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="20"/>
@@ -2054,7 +2174,7 @@
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B31" s="20"/>
@@ -2064,7 +2184,7 @@
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="20"/>
@@ -2075,11 +2195,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A15:F15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A27:F27"/>
@@ -2090,9 +2205,15 @@
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2100,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2122,17 +2243,17 @@
     </row>
     <row r="3" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="20"/>
@@ -2144,8 +2265,8 @@
       <c r="A5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>193</v>
+      <c r="B5" s="24" t="s">
+        <v>192</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -2155,15 +2276,15 @@
       <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>191</v>
+      <c r="B6" s="24" t="s">
+        <v>190</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="20"/>
@@ -2172,8 +2293,8 @@
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>183</v>
+      <c r="A8" s="31" t="s">
+        <v>182</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -2181,18 +2302,18 @@
       <c r="E8" s="20"/>
     </row>
     <row r="10" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="26" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="20"/>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="20"/>
@@ -2204,7 +2325,7 @@
       <c r="A12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="20"/>
@@ -2215,15 +2336,15 @@
       <c r="A13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>203</v>
+      <c r="B13" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="20"/>
@@ -2232,8 +2353,8 @@
       <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>202</v>
+      <c r="A15" s="31" t="s">
+        <v>201</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -2241,18 +2362,18 @@
       <c r="E15" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="26" t="s">
         <v>72</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="20"/>
@@ -2264,7 +2385,7 @@
       <c r="A19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="20"/>
@@ -2275,7 +2396,7 @@
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="20"/>
@@ -2283,7 +2404,7 @@
       <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="20"/>
@@ -2292,8 +2413,8 @@
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>210</v>
+      <c r="A22" s="31" t="s">
+        <v>209</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -2301,18 +2422,18 @@
       <c r="E22" s="20"/>
     </row>
     <row r="24" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="26" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="20"/>
@@ -2324,8 +2445,8 @@
       <c r="A26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>216</v>
+      <c r="B26" s="24" t="s">
+        <v>215</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -2335,8 +2456,8 @@
       <c r="A27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>211</v>
+      <c r="B27" s="24" t="s">
+        <v>210</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -2346,8 +2467,8 @@
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>212</v>
+      <c r="B28" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -2357,8 +2478,8 @@
       <c r="A29" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>213</v>
+      <c r="B29" s="24" t="s">
+        <v>212</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
@@ -2368,8 +2489,8 @@
       <c r="A30" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>214</v>
+      <c r="B30" s="24" t="s">
+        <v>213</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -2379,15 +2500,15 @@
       <c r="A31" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>215</v>
+      <c r="B31" s="24" t="s">
+        <v>214</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="20"/>
@@ -2396,8 +2517,8 @@
       <c r="E32" s="20"/>
     </row>
     <row r="33" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>83</v>
+      <c r="A33" s="31" t="s">
+        <v>216</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -2405,18 +2526,18 @@
       <c r="E33" s="20"/>
     </row>
     <row r="35" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="27" t="s">
         <v>84</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="26" t="s">
-        <v>85</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="20"/>
@@ -2426,17 +2547,17 @@
     </row>
     <row r="37" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>86</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B38" s="20"/>
@@ -2445,8 +2566,8 @@
       <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
-        <v>88</v>
+      <c r="A39" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -2454,18 +2575,18 @@
       <c r="E39" s="20"/>
     </row>
     <row r="41" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
-        <v>184</v>
+      <c r="A41" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="B41" s="20"/>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="20"/>
@@ -2477,8 +2598,8 @@
       <c r="A43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>89</v>
+      <c r="B43" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -2488,15 +2609,15 @@
       <c r="A44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>90</v>
+      <c r="B44" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B45" s="20"/>
@@ -2505,8 +2626,8 @@
       <c r="E45" s="20"/>
     </row>
     <row r="46" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
-        <v>91</v>
+      <c r="A46" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -2514,18 +2635,18 @@
       <c r="E46" s="20"/>
     </row>
     <row r="48" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="31" t="s">
-        <v>92</v>
+      <c r="A48" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="B48" s="20"/>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B49" s="20"/>
@@ -2537,8 +2658,8 @@
       <c r="A50" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="25" t="s">
-        <v>93</v>
+      <c r="B50" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -2548,15 +2669,15 @@
       <c r="A51" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="25" t="s">
-        <v>94</v>
+      <c r="B51" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B52" s="20"/>
@@ -2565,8 +2686,8 @@
       <c r="E52" s="20"/>
     </row>
     <row r="53" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
-        <v>95</v>
+      <c r="A53" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -2575,6 +2696,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C41:E41"/>
     <mergeCell ref="A53:E53"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A38:E38"/>
@@ -2591,43 +2749,6 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A35:B35"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2652,7 +2773,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2660,7 +2781,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -2671,10 +2792,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -2682,10 +2803,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="11"/>
@@ -2693,27 +2814,27 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="11"/>
@@ -2721,7 +2842,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="11"/>
@@ -2729,7 +2850,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="11"/>
@@ -2742,10 +2863,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="11"/>
@@ -2753,7 +2874,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="11"/>
@@ -2761,7 +2882,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="11"/>
@@ -2769,7 +2890,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="11"/>
@@ -2777,7 +2898,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="11"/>
@@ -2790,10 +2911,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="11"/>
@@ -2801,7 +2922,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="11"/>
@@ -2817,7 +2938,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="11"/>
@@ -2825,7 +2946,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="11"/>
@@ -2838,10 +2959,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2849,7 +2970,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2857,7 +2978,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2865,7 +2986,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2873,7 +2994,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2881,7 +3002,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2889,7 +3010,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2902,10 +3023,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -2918,10 +3039,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>122</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -2929,7 +3050,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -2937,7 +3058,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -2945,7 +3066,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -2958,10 +3079,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2969,7 +3090,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -2977,7 +3098,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -2985,7 +3106,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -3025,7 +3146,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3034,153 +3155,153 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>142</v>
       </c>
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>145</v>
       </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>150</v>
       </c>
       <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="16" t="s">
         <v>160</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>161</v>
       </c>
       <c r="E12" s="15"/>
     </row>
@@ -3210,106 +3331,106 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
         <v>164</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>165</v>
-      </c>
-      <c r="C4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
         <v>167</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
         <v>171</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>172</v>
-      </c>
-      <c r="C8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" t="s">
         <v>174</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>175</v>
-      </c>
-      <c r="C9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" t="s">
         <v>179</v>
-      </c>
-      <c r="B13" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Week1_CUDA入门/Week1_CUDA入门_学习计划.xlsx
+++ b/Week1_CUDA入门/Week1_CUDA入门_学习计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\CUDA\cuda-learning\Week1_CUDA入门\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931C4189-262B-4F8F-B190-29592EFF5FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEEDD79-6F10-4735-B09C-A4AFCB28A2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 总览" sheetId="1" r:id="rId1"/>
@@ -1457,7 +1457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1503,38 +1503,40 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1855,14 +1857,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1902,84 +1904,84 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -2137,64 +2139,69 @@
       <c r="A27" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A15:F15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A27:F27"/>
@@ -2205,11 +2212,6 @@
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2221,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2233,474 +2235,501 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="17" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="24" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
     </row>
     <row r="35" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="41" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
     </row>
     <row r="44" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="48" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
     </row>
     <row r="53" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C41:E41"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="A11:E11"/>
@@ -2717,38 +2746,11 @@
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A35:B35"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2759,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C23"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2772,20 +2774,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2954,7 +2956,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2964,7 +2966,7 @@
       <c r="B25" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,7 +2974,7 @@
       <c r="B26" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2980,7 +2982,7 @@
       <c r="B27" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2988,7 +2990,7 @@
       <c r="B28" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2996,7 +2998,7 @@
       <c r="B29" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3004,7 +3006,7 @@
       <c r="B30" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="11"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3012,7 +3014,7 @@
       <c r="B31" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3131,8 +3133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3145,13 +3147,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3273,7 +3275,7 @@
       <c r="D10" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
@@ -3288,7 +3290,7 @@
       <c r="D11" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
@@ -3330,18 +3332,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3366,11 +3368,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3395,11 +3397,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
